--- a/Deliverable 3/Unit Test Report.xlsx
+++ b/Deliverable 3/Unit Test Report.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Documents\GitHub\Pizza\Deliverable 3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>Unit Test Report</t>
   </si>
@@ -242,8 +237,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,9 +361,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -411,9 +403,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,7 +501,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,84 +678,84 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8"/>
-    <col min="2" max="2" width="37.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="7"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" ht="18.75">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26" x14ac:dyDescent="0.6">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" ht="26.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -768,8 +763,8 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" t="s">
@@ -777,8 +772,8 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -786,8 +781,8 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+    <row r="10" spans="1:6">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -795,8 +790,8 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+    <row r="11" spans="1:6">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" t="s">
@@ -804,8 +799,8 @@
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+    <row r="12" spans="1:6">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -813,8 +808,8 @@
       </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+    <row r="13" spans="1:6">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
       <c r="B13" t="s">
@@ -822,8 +817,8 @@
       </c>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
       <c r="B14" t="s">
@@ -831,8 +826,8 @@
       </c>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
         <v>9</v>
       </c>
       <c r="B15" t="s">
@@ -840,8 +835,8 @@
       </c>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+    <row r="16" spans="1:6">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
       <c r="B16" t="s">
@@ -849,8 +844,8 @@
       </c>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+    <row r="17" spans="1:6">
+      <c r="A17" s="7">
         <v>11</v>
       </c>
       <c r="B17" t="s">
@@ -858,8 +853,8 @@
       </c>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+    <row r="18" spans="1:6">
+      <c r="A18" s="7">
         <v>12</v>
       </c>
       <c r="B18" t="s">
@@ -867,8 +862,8 @@
       </c>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+    <row r="19" spans="1:6">
+      <c r="A19" s="7">
         <v>13</v>
       </c>
       <c r="B19" t="s">
@@ -876,514 +871,610 @@
       </c>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7">
         <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+      <c r="C21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7">
         <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+      <c r="C22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7">
         <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+      <c r="C23" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
+    <row r="25" spans="1:6">
+      <c r="A25" s="7">
         <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
+    <row r="26" spans="1:6">
+      <c r="A26" s="7">
         <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+    <row r="27" spans="1:6">
+      <c r="A27" s="7">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+    <row r="28" spans="1:6">
+      <c r="A28" s="7">
         <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+    <row r="29" spans="1:6">
+      <c r="A29" s="7">
         <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
+      <c r="C29" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="7">
         <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+    <row r="32" spans="1:6">
+      <c r="A32" s="7">
         <v>2</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+    <row r="33" spans="1:6">
+      <c r="A33" s="7">
         <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
+    <row r="34" spans="1:6">
+      <c r="A34" s="7">
         <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
+    <row r="35" spans="1:6">
+      <c r="A35" s="7">
         <v>5</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
+    <row r="36" spans="1:6">
+      <c r="A36" s="7">
         <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7">
         <v>1</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
+    <row r="39" spans="1:6">
+      <c r="A39" s="7">
         <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
+    <row r="40" spans="1:6">
+      <c r="A40" s="7">
         <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
+    <row r="41" spans="1:6">
+      <c r="A41" s="7">
         <v>4</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="7">
         <v>1</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
+      <c r="C43" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="7">
         <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="8">
+      <c r="C44" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="7">
         <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
+      <c r="C45" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="7">
         <v>4</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15" t="s">
+      <c r="C46" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="8">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="7">
         <v>1</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="8">
+    <row r="49" spans="1:6">
+      <c r="A49" s="7">
         <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="8">
+    <row r="50" spans="1:6">
+      <c r="A50" s="7">
         <v>3</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="8">
+    <row r="51" spans="1:6">
+      <c r="A51" s="7">
         <v>4</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="8">
+    <row r="52" spans="1:6">
+      <c r="A52" s="7">
         <v>5</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="8">
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="7">
         <v>1</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="8">
+    <row r="55" spans="1:6">
+      <c r="A55" s="7">
         <v>2</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="8">
+    <row r="56" spans="1:6">
+      <c r="A56" s="7">
         <v>3</v>
       </c>
       <c r="B56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="8">
+    <row r="57" spans="1:6">
+      <c r="A57" s="7">
         <v>4</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="8">
+    <row r="58" spans="1:6">
+      <c r="A58" s="7">
         <v>5</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15" t="s">
+    <row r="59" spans="1:6">
+      <c r="A59" s="13"/>
+      <c r="B59" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="8">
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="7">
         <v>1</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="8">
+    <row r="61" spans="1:6">
+      <c r="A61" s="7">
         <v>2</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="8">
+    <row r="62" spans="1:6">
+      <c r="A62" s="7">
         <v>3</v>
       </c>
       <c r="B62" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="8">
+    <row r="63" spans="1:6">
+      <c r="A63" s="7">
         <v>4</v>
       </c>
       <c r="B63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="8">
+    <row r="64" spans="1:6">
+      <c r="A64" s="7">
         <v>5</v>
       </c>
       <c r="B64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="8">
+    <row r="65" spans="1:6">
+      <c r="A65" s="7">
         <v>6</v>
       </c>
       <c r="B65" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="14"/>
-      <c r="B66" s="15" t="s">
+    <row r="66" spans="1:6">
+      <c r="A66" s="13"/>
+      <c r="B66" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="8">
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="7">
         <v>1</v>
       </c>
       <c r="B67" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="8">
+    <row r="68" spans="1:6">
+      <c r="A68" s="7">
         <v>2</v>
       </c>
       <c r="B68" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F68" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="8">
+    <row r="69" spans="1:6">
+      <c r="A69" s="7">
         <v>3</v>
       </c>
       <c r="B69" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F69" s="20" t="s">
+      <c r="F69" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="8">
+    <row r="70" spans="1:6">
+      <c r="A70" s="7">
         <v>4</v>
       </c>
       <c r="B70" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" s="13"/>
+      <c r="B71" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="8">
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="7">
         <v>1</v>
       </c>
       <c r="B72" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="8">
+    <row r="73" spans="1:6">
+      <c r="A73" s="7">
         <v>2</v>
       </c>
       <c r="B73" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="8">
+    <row r="74" spans="1:6">
+      <c r="A74" s="7">
         <v>3</v>
       </c>
       <c r="B74" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="8">
+    <row r="75" spans="1:6">
+      <c r="A75" s="7">
         <v>4</v>
       </c>
       <c r="B75" t="s">
